--- a/TP09_mission/TestFractionTableau.xlsx
+++ b/TP09_mission/TestFractionTableau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#5_LILIAN\#2_EPHEC\2ième\Dev2\TP09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AEcole\annee3\projet Intégration\Dev2\TP09_mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C803F245-1045-4FAC-9EFF-307D7ABC51A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29B8143-97F6-4D39-B92F-8A0BFB051338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46EF1DB4-2CED-4E86-98ED-73DD3F37237B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46EF1DB4-2CED-4E86-98ED-73DD3F37237B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="140">
   <si>
     <t>testCreationFraction</t>
   </si>
@@ -191,9 +191,6 @@
     <t>num = 1  denum=2</t>
   </si>
   <si>
-    <t>commentaires eventuels</t>
-  </si>
-  <si>
     <t>test de crétaion simple</t>
   </si>
   <si>
@@ -453,13 +450,19 @@
   </si>
   <si>
     <t>Fractions Adjacentes</t>
+  </si>
+  <si>
+    <t>test avec un autre entier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commentaires </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,13 +489,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -507,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -524,6 +541,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,9 +567,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -583,7 +607,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -689,7 +713,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -831,7 +855,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -839,49 +863,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF83B11C-E988-48A3-B6F8-5A34FA29BED9}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="87.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="89.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="H1" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -897,14 +921,14 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -917,14 +941,14 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -937,39 +961,39 @@
       <c r="E4" t="s">
         <v>50</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
       <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -977,14 +1001,14 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -992,39 +1016,39 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1040,14 +1064,14 @@
       <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -1060,54 +1084,54 @@
       <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1120,14 +1144,14 @@
       <c r="E14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -1140,665 +1164,665 @@
       <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>10</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="G24" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>73</v>
+      <c r="C25" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" t="s">
-        <v>74</v>
+      <c r="C26" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>78</v>
+      <c r="C27" t="s">
+        <v>73</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="G29" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>99</v>
+        <v>35</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>38</v>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>44</v>
+      <c r="C32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>40</v>
+        <v>76</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>109</v>
+        <v>35</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>100</v>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>23</v>
       </c>
-      <c r="C37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="C37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="G39" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>110</v>
+      <c r="C40" t="s">
+        <v>41</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>24</v>
       </c>
-      <c r="C41" t="s">
-        <v>111</v>
+      <c r="C41" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>24</v>
       </c>
       <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
         <v>112</v>
       </c>
-      <c r="D42" s="4" t="s">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G42" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" t="s">
+      <c r="G43" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
         <v>118</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
         <v>119</v>
       </c>
-      <c r="D43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
-      <c r="B44" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>25</v>
       </c>
-      <c r="B49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
       <c r="B50" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H50" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="D52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="D53" t="s">
         <v>48</v>
@@ -1806,39 +1830,39 @@
       <c r="E53" t="s">
         <v>48</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D54" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" t="s">
-        <v>47</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="B55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="D55" t="s">
         <v>47</v>
@@ -1846,161 +1870,185 @@
       <c r="E55" t="s">
         <v>47</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>48</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E57" t="s">
         <v>48</v>
       </c>
-      <c r="G56" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" t="s">
-        <v>47</v>
-      </c>
-      <c r="E57" t="s">
-        <v>47</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="G57" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>31</v>
       </c>
       <c r="C58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>48</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>48</v>
       </c>
-      <c r="G58" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
+      <c r="G59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="11"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>32</v>
       </c>
-      <c r="B61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="E61" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="G61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
       <c r="B62" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>60</v>
+      <c r="C62" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D62" s="5">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="E62" s="5">
-        <v>2</v>
-      </c>
-      <c r="G62" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>127</v>
+      <c r="C63" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D63" s="5">
-        <v>-0.33</v>
+        <v>2</v>
       </c>
       <c r="E63" s="5">
-        <v>-0.33</v>
-      </c>
-      <c r="G63" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>33</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" s="8">
+        <v>126</v>
+      </c>
+      <c r="D64" s="5">
+        <v>-0.33</v>
+      </c>
+      <c r="E64" s="5">
+        <v>-0.33</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="8">
         <v>-3</v>
       </c>
-      <c r="E64" s="8">
+      <c r="E65" s="8">
         <v>-3</v>
       </c>
-      <c r="G64" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" t="s">
-        <v>126</v>
+      <c r="G65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D39:E39" twoDigitTextYear="1"/>
+    <ignoredError sqref="D40:E40" twoDigitTextYear="1"/>
     <ignoredError sqref="D16:E16 E12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
